--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Request_Subfunction_Only_(batch)_BA10601_Intra-period_project_list_output_batch.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/110_Test_Specifications/Unit_Test_Specification_Request_Subfunction_Only_(batch)_BA10601_Intra-period_project_list_output_batch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\tikk79798\documents\english-edition\nablarch-system-development-guide\サンプルプロジェクト\設計書\A1_プロジェクト管理システム\030_アプリ設計\110_テスト仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TIE305600\Desktop\Fintan\task\nablarch-system-development-guide\en\サンプルプロジェクト\設計書\A1_プロジェクト管理システム\030_アプリ設計\110_テスト仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BF984D-2E02-48C8-B617-2CC5F9206A74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8CB1BE-9993-4D35-88A0-D79140EA42DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2685" windowWidth="24000" windowHeight="10830" tabRatio="781" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" state="hidden" r:id="rId1"/>
@@ -46,38 +46,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>TIS</author>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{FB243FDA-D1E0-4249-83AE-847F29B6AF1C}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -104,62 +76,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{B106DCD3-EC2E-4ED3-937B-798BDD9D24C7}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現ですので、
-「scrutiny」ではなく「validate、validation」で統一していただけますでしょうか。
-他のセルについても修正をお願いいたします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{F17BCBA7-0AA0-45EB-8A7D-66C3405F75D2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「レコード構成」は「Record structure」
-としてください。他のセルも同様に
-修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -167,38 +83,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>TIS</author>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{26F92BB6-4A0B-4F3F-A311-B60087DA5673}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は
-「subfunction」としてください。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -211,36 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{B3B2CDDF-F08E-4B42-A91F-D6E6A840790B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「精査」はTIS特有の表現ですので、
-「scrutiny」ではなく「validate、validation」
-で統一していただけますでしょうか。
-他のセルについても修正をお願いいたします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C28" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -253,34 +112,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0" xr:uid="{FC2D02B8-9C55-4BAE-9CB6-BB62358F38BC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">TIS:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>「レコード構成」は「Record structure」
-としてください。他のセルやコメントも同様に
-修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -288,39 +119,10 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>TIS</author>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{4C925FC8-1878-4D89-A655-0B656A8BAAF3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">TIS:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>Nablarchでの「取引」は
-「subfunction」としてください。
-他のセルも同様に修正をお願いします。</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -606,11 +408,6 @@
     <t>File layout (all record types)</t>
   </si>
   <si>
-    <t>(a) Record configuration
-(b) Record configuration
-(c) Processing details, event details</t>
-  </si>
-  <si>
     <t>3-3-1</t>
   </si>
   <si>
@@ -621,10 +418,6 @@
   </si>
   <si>
     <t>Sort order</t>
-  </si>
-  <si>
-    <t>(a) Record configuration
-(b) Record configuration</t>
   </si>
   <si>
     <t>3-5-1</t>
@@ -788,9 +581,6 @@
     <t>Response message specification</t>
   </si>
   <si>
-    <t>Record configuration</t>
-  </si>
-  <si>
     <t>Repeat count</t>
   </si>
   <si>
@@ -1086,6 +876,18 @@
   <si>
     <t>Validation between items</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(a) Record structure
+(b) Record structure
+(c) Processing details, event details</t>
+  </si>
+  <si>
+    <t>(a) Record structure
+(b) Record structure</t>
+  </si>
+  <si>
+    <t>Record structure</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +899,7 @@
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="VL Pゴシック"/>
@@ -1205,21 +1007,6 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5525,7 +5312,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>28</v>
@@ -5962,7 +5749,7 @@
         <v>80</v>
       </c>
       <c r="E23" s="60" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="F23" s="45" t="s">
         <v>67</v>
@@ -5982,17 +5769,17 @@
     </row>
     <row r="24" spans="1:16" s="50" customFormat="1" ht="48" customHeight="1">
       <c r="A24" s="56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="59"/>
       <c r="C24" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>80</v>
       </c>
       <c r="E24" s="61" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>67</v>
@@ -6012,17 +5799,17 @@
     </row>
     <row r="25" spans="1:16" s="50" customFormat="1" ht="48" customHeight="1">
       <c r="A25" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="59"/>
       <c r="C25" s="57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="F25" s="45" t="s">
         <v>67</v>
@@ -6042,17 +5829,17 @@
     </row>
     <row r="26" spans="1:16" s="50" customFormat="1" ht="48" customHeight="1">
       <c r="A26" s="56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B26" s="59"/>
       <c r="C26" s="57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="58" t="s">
         <v>80</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>67</v>
@@ -6072,17 +5859,17 @@
     </row>
     <row r="27" spans="1:16" s="50" customFormat="1" ht="48" customHeight="1">
       <c r="A27" s="56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B27" s="59"/>
       <c r="C27" s="57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D27" s="62" t="s">
         <v>80</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F27" s="45" t="s">
         <v>67</v>
@@ -6102,19 +5889,19 @@
     </row>
     <row r="28" spans="1:16" s="50" customFormat="1" ht="48">
       <c r="A28" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="D28" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="E28" s="61" t="s">
         <v>97</v>
-      </c>
-      <c r="D28" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>99</v>
       </c>
       <c r="F28" s="45" t="s">
         <v>67</v>
@@ -6134,17 +5921,17 @@
     </row>
     <row r="29" spans="1:16" s="50" customFormat="1" ht="48">
       <c r="A29" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="59"/>
       <c r="C29" s="57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E29" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F29" s="45" t="s">
         <v>67</v>
@@ -6164,17 +5951,17 @@
     </row>
     <row r="30" spans="1:16" s="50" customFormat="1" ht="48">
       <c r="A30" s="43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30" s="59"/>
       <c r="C30" s="57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D30" s="61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F30" s="45" t="s">
         <v>67</v>
@@ -6194,17 +5981,17 @@
     </row>
     <row r="31" spans="1:16" s="50" customFormat="1" ht="48">
       <c r="A31" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="57" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E31" s="61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F31" s="45" t="s">
         <v>67</v>
@@ -6224,14 +6011,14 @@
     </row>
     <row r="32" spans="1:16" s="50" customFormat="1" ht="24">
       <c r="A32" s="63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B32" s="64"/>
       <c r="C32" s="58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E32" s="58" t="s">
         <v>21</v>
@@ -6254,19 +6041,19 @@
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" ht="29.25" customHeight="1">
       <c r="A33" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="70" t="s">
+        <v>231</v>
+      </c>
+      <c r="C33" s="71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="C33" s="71" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="72" t="s">
-        <v>111</v>
-      </c>
       <c r="E33" s="72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F33" s="73"/>
       <c r="G33" s="74"/>
@@ -6322,30 +6109,30 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K6" s="25" t="s">
         <v>29</v>
@@ -6353,10 +6140,10 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K7" s="25" t="s">
         <v>32</v>
@@ -6364,7 +6151,7 @@
     </row>
     <row r="8" spans="1:18" ht="12.75" thickBot="1">
       <c r="A8" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -6390,7 +6177,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>34</v>
@@ -6399,7 +6186,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>38</v>
@@ -6446,28 +6233,28 @@
         <v>50</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C11" s="79" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E11" s="81" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F11" s="81" t="s">
         <v>67</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H11" s="82" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J11" s="82"/>
       <c r="K11" s="82"/>
@@ -6487,19 +6274,19 @@
       <c r="C12" s="88"/>
       <c r="D12" s="89"/>
       <c r="E12" s="90" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F12" s="81" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H12" s="91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I12" s="91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J12" s="91"/>
       <c r="K12" s="91"/>
@@ -6524,13 +6311,13 @@
       <c r="F13" s="90"/>
       <c r="G13" s="90"/>
       <c r="H13" s="91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I13" s="91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J13" s="91" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K13" s="91"/>
       <c r="L13" s="92"/>
@@ -6548,10 +6335,10 @@
       <c r="B14" s="88"/>
       <c r="C14" s="88"/>
       <c r="D14" s="97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E14" s="98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="98"/>
@@ -6562,7 +6349,7 @@
         <v>81</v>
       </c>
       <c r="J14" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K14" s="98"/>
       <c r="L14" s="92"/>
@@ -6581,7 +6368,7 @@
       <c r="C15" s="88"/>
       <c r="D15" s="99"/>
       <c r="E15" s="98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" s="98"/>
       <c r="G15" s="98"/>
@@ -6589,10 +6376,10 @@
         <v>80</v>
       </c>
       <c r="I15" s="98" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="J15" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" s="98"/>
       <c r="L15" s="92"/>
@@ -6611,7 +6398,7 @@
       <c r="C16" s="88"/>
       <c r="D16" s="99"/>
       <c r="E16" s="98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="98"/>
       <c r="G16" s="98"/>
@@ -6619,10 +6406,10 @@
         <v>80</v>
       </c>
       <c r="I16" s="98" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="J16" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K16" s="98"/>
       <c r="L16" s="92"/>
@@ -6641,7 +6428,7 @@
       <c r="C17" s="88"/>
       <c r="D17" s="99"/>
       <c r="E17" s="98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="98"/>
       <c r="G17" s="98"/>
@@ -6649,10 +6436,10 @@
         <v>80</v>
       </c>
       <c r="I17" s="98" t="s">
-        <v>89</v>
+        <v>234</v>
       </c>
       <c r="J17" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K17" s="98"/>
       <c r="L17" s="92"/>
@@ -6671,7 +6458,7 @@
       <c r="C18" s="88"/>
       <c r="D18" s="99"/>
       <c r="E18" s="98" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F18" s="98"/>
       <c r="G18" s="98"/>
@@ -6679,10 +6466,10 @@
         <v>80</v>
       </c>
       <c r="I18" s="98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J18" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K18" s="98"/>
       <c r="L18" s="100"/>
@@ -6695,13 +6482,13 @@
     </row>
     <row r="19" spans="1:18" ht="48" customHeight="1">
       <c r="A19" s="87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B19" s="88"/>
       <c r="C19" s="88"/>
       <c r="D19" s="99"/>
       <c r="E19" s="98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F19" s="98"/>
       <c r="G19" s="98"/>
@@ -6709,10 +6496,10 @@
         <v>80</v>
       </c>
       <c r="I19" s="98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J19" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K19" s="98"/>
       <c r="L19" s="100"/>
@@ -6725,24 +6512,24 @@
     </row>
     <row r="20" spans="1:18" ht="24">
       <c r="A20" s="87" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B20" s="88"/>
       <c r="C20" s="88"/>
       <c r="D20" s="99"/>
       <c r="E20" s="98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F20" s="98"/>
       <c r="G20" s="98"/>
       <c r="H20" s="98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I20" s="98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J20" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K20" s="98"/>
       <c r="L20" s="100"/>
@@ -6755,24 +6542,24 @@
     </row>
     <row r="21" spans="1:18" ht="24">
       <c r="A21" s="87" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B21" s="88"/>
       <c r="C21" s="88"/>
       <c r="D21" s="99"/>
       <c r="E21" s="98" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F21" s="98"/>
       <c r="G21" s="98"/>
       <c r="H21" s="98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I21" s="98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J21" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K21" s="98"/>
       <c r="L21" s="100"/>
@@ -6785,24 +6572,24 @@
     </row>
     <row r="22" spans="1:18" ht="24">
       <c r="A22" s="87" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B22" s="88"/>
       <c r="C22" s="88"/>
       <c r="D22" s="101"/>
       <c r="E22" s="98" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F22" s="98"/>
       <c r="G22" s="98"/>
       <c r="H22" s="98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I22" s="98" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J22" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K22" s="98"/>
       <c r="L22" s="100"/>
@@ -6820,10 +6607,10 @@
       <c r="B23" s="88"/>
       <c r="C23" s="88"/>
       <c r="D23" s="97" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E23" s="98" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="F23" s="98"/>
       <c r="G23" s="98"/>
@@ -6831,10 +6618,10 @@
         <v>80</v>
       </c>
       <c r="I23" s="98" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="J23" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K23" s="98"/>
       <c r="L23" s="100"/>
@@ -6853,7 +6640,7 @@
       <c r="C24" s="88"/>
       <c r="D24" s="99"/>
       <c r="E24" s="98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F24" s="98"/>
       <c r="G24" s="98"/>
@@ -6861,10 +6648,10 @@
         <v>80</v>
       </c>
       <c r="I24" s="98" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="J24" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K24" s="98"/>
       <c r="L24" s="100"/>
@@ -6877,13 +6664,13 @@
     </row>
     <row r="25" spans="1:18" ht="60" customHeight="1">
       <c r="A25" s="87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25" s="88"/>
       <c r="C25" s="88"/>
       <c r="D25" s="99"/>
       <c r="E25" s="98" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F25" s="98"/>
       <c r="G25" s="98"/>
@@ -6891,10 +6678,10 @@
         <v>80</v>
       </c>
       <c r="I25" s="98" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J25" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K25" s="98"/>
       <c r="L25" s="100"/>
@@ -6907,13 +6694,13 @@
     </row>
     <row r="26" spans="1:18" ht="60" customHeight="1">
       <c r="A26" s="87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26" s="88"/>
       <c r="C26" s="88"/>
       <c r="D26" s="99"/>
       <c r="E26" s="98" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F26" s="98"/>
       <c r="G26" s="98"/>
@@ -6921,10 +6708,10 @@
         <v>80</v>
       </c>
       <c r="I26" s="98" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J26" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K26" s="98"/>
       <c r="L26" s="100"/>
@@ -6937,24 +6724,24 @@
     </row>
     <row r="27" spans="1:18" ht="24">
       <c r="A27" s="87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B27" s="88"/>
       <c r="C27" s="88"/>
       <c r="D27" s="99"/>
       <c r="E27" s="102" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F27" s="97"/>
       <c r="G27" s="97"/>
       <c r="H27" s="97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I27" s="97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J27" s="98" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K27" s="97"/>
       <c r="L27" s="103"/>
@@ -6967,26 +6754,26 @@
     </row>
     <row r="28" spans="1:18" ht="24">
       <c r="A28" s="87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B28" s="104"/>
       <c r="C28" s="105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E28" s="107"/>
       <c r="F28" s="108"/>
       <c r="G28" s="109"/>
       <c r="H28" s="110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I28" s="111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J28" s="112" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K28" s="112"/>
       <c r="L28" s="100"/>
@@ -6999,24 +6786,24 @@
     </row>
     <row r="29" spans="1:18" ht="24">
       <c r="A29" s="87" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" s="114"/>
       <c r="C29" s="115"/>
       <c r="D29" s="116" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E29" s="107"/>
       <c r="F29" s="117"/>
       <c r="G29" s="109"/>
       <c r="H29" s="110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I29" s="111" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J29" s="112" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K29" s="112"/>
       <c r="L29" s="100"/>
@@ -7029,38 +6816,38 @@
     </row>
     <row r="30" spans="1:18" ht="36">
       <c r="A30" s="69" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B30" s="118"/>
       <c r="C30" s="119" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D30" s="120" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E30" s="121"/>
       <c r="F30" s="121"/>
       <c r="G30" s="121"/>
       <c r="H30" s="122" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I30" s="123" t="s">
+        <v>153</v>
+      </c>
+      <c r="J30" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="K30" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="L30" s="126" t="s">
         <v>156</v>
-      </c>
-      <c r="J30" s="124" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="L30" s="126" t="s">
-        <v>159</v>
       </c>
       <c r="M30" s="126">
         <v>2</v>
       </c>
       <c r="N30" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O30" s="127">
         <v>43737</v>
@@ -7071,7 +6858,7 @@
     </row>
     <row r="31" spans="1:18" ht="36">
       <c r="A31" s="69" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B31" s="118"/>
       <c r="C31" s="129"/>
@@ -7082,19 +6869,19 @@
       <c r="H31" s="132"/>
       <c r="I31" s="133"/>
       <c r="J31" s="124" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K31" s="125" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L31" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M31" s="126">
         <v>2</v>
       </c>
       <c r="N31" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O31" s="127">
         <v>43737</v>
@@ -7105,7 +6892,7 @@
     </row>
     <row r="32" spans="1:18" ht="60">
       <c r="A32" s="69" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B32" s="118"/>
       <c r="C32" s="129"/>
@@ -7116,19 +6903,19 @@
       <c r="H32" s="132"/>
       <c r="I32" s="133"/>
       <c r="J32" s="124" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K32" s="125" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L32" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M32" s="126">
         <v>1</v>
       </c>
       <c r="N32" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O32" s="127">
         <v>43737</v>
@@ -7139,7 +6926,7 @@
     </row>
     <row r="33" spans="1:18" ht="48">
       <c r="A33" s="69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B33" s="118"/>
       <c r="C33" s="129"/>
@@ -7150,19 +6937,19 @@
       <c r="H33" s="136"/>
       <c r="I33" s="137"/>
       <c r="J33" s="124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K33" s="125" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L33" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M33" s="126">
         <v>1</v>
       </c>
       <c r="N33" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O33" s="127">
         <v>43737</v>
@@ -7173,36 +6960,36 @@
     </row>
     <row r="34" spans="1:18" ht="24">
       <c r="A34" s="69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B34" s="118"/>
       <c r="C34" s="129"/>
       <c r="D34" s="138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E34" s="135"/>
       <c r="F34" s="131"/>
       <c r="G34" s="131"/>
       <c r="H34" s="132" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I34" s="137" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J34" s="124" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K34" s="125" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L34" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M34" s="126">
         <v>3</v>
       </c>
       <c r="N34" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O34" s="127">
         <v>43737</v>
@@ -7213,21 +7000,21 @@
     </row>
     <row r="35" spans="1:18" ht="24">
       <c r="A35" s="87" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B35" s="114"/>
       <c r="C35" s="139"/>
       <c r="D35" s="140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E35" s="107"/>
       <c r="F35" s="141"/>
       <c r="G35" s="141"/>
       <c r="H35" s="142" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I35" s="143" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J35" s="112"/>
       <c r="K35" s="112"/>
@@ -7241,36 +7028,36 @@
     </row>
     <row r="36" spans="1:18" ht="36">
       <c r="A36" s="69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B36" s="118"/>
       <c r="C36" s="129"/>
       <c r="D36" s="144" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E36" s="145"/>
       <c r="F36" s="121"/>
       <c r="G36" s="121"/>
       <c r="H36" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="123" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="124" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="I36" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="J36" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="K36" s="125" t="s">
-        <v>179</v>
-      </c>
       <c r="L36" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M36" s="126">
         <v>3</v>
       </c>
       <c r="N36" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O36" s="127">
         <v>43737</v>
@@ -7281,36 +7068,36 @@
     </row>
     <row r="37" spans="1:18" ht="36">
       <c r="A37" s="69" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B37" s="118"/>
       <c r="C37" s="146"/>
       <c r="D37" s="147" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E37" s="145"/>
       <c r="F37" s="121"/>
       <c r="G37" s="121"/>
       <c r="H37" s="122" t="s">
+        <v>173</v>
+      </c>
+      <c r="I37" s="123" t="s">
+        <v>174</v>
+      </c>
+      <c r="J37" s="124" t="s">
+        <v>178</v>
+      </c>
+      <c r="K37" s="125" t="s">
         <v>176</v>
       </c>
-      <c r="I37" s="123" t="s">
-        <v>177</v>
-      </c>
-      <c r="J37" s="124" t="s">
-        <v>181</v>
-      </c>
-      <c r="K37" s="125" t="s">
-        <v>179</v>
-      </c>
       <c r="L37" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M37" s="126">
         <v>3</v>
       </c>
       <c r="N37" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O37" s="127">
         <v>43737</v>
@@ -7321,14 +7108,14 @@
     </row>
     <row r="38" spans="1:18" ht="48" customHeight="1">
       <c r="A38" s="87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B38" s="114"/>
       <c r="C38" s="105" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D38" s="148" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E38" s="107"/>
       <c r="F38" s="107"/>
@@ -7340,7 +7127,7 @@
         <v>81</v>
       </c>
       <c r="J38" s="150" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K38" s="151"/>
       <c r="L38" s="152"/>
@@ -7353,12 +7140,12 @@
     </row>
     <row r="39" spans="1:18" ht="48" customHeight="1">
       <c r="A39" s="87" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B39" s="114"/>
       <c r="C39" s="139"/>
       <c r="D39" s="140" t="s">
-        <v>142</v>
+        <v>235</v>
       </c>
       <c r="E39" s="107"/>
       <c r="F39" s="141"/>
@@ -7367,10 +7154,10 @@
         <v>80</v>
       </c>
       <c r="I39" s="111" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="J39" s="150" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K39" s="54"/>
       <c r="L39" s="153"/>
@@ -7383,12 +7170,12 @@
     </row>
     <row r="40" spans="1:18" ht="48" customHeight="1">
       <c r="A40" s="87" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B40" s="114"/>
       <c r="C40" s="139"/>
       <c r="D40" s="140" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E40" s="107"/>
       <c r="F40" s="117"/>
@@ -7397,10 +7184,10 @@
         <v>80</v>
       </c>
       <c r="I40" s="155" t="s">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="J40" s="150" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K40" s="54"/>
       <c r="L40" s="153"/>
@@ -7413,12 +7200,12 @@
     </row>
     <row r="41" spans="1:18" ht="59.1" customHeight="1">
       <c r="A41" s="87" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B41" s="114"/>
       <c r="C41" s="139"/>
       <c r="D41" s="140" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E41" s="107"/>
       <c r="F41" s="156"/>
@@ -7427,10 +7214,10 @@
         <v>80</v>
       </c>
       <c r="I41" s="158" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J41" s="150" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K41" s="54"/>
       <c r="L41" s="153"/>
@@ -7443,12 +7230,12 @@
     </row>
     <row r="42" spans="1:18" ht="59.1" customHeight="1">
       <c r="A42" s="87" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B42" s="114"/>
       <c r="C42" s="139"/>
       <c r="D42" s="159" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E42" s="107"/>
       <c r="F42" s="156"/>
@@ -7457,10 +7244,10 @@
         <v>80</v>
       </c>
       <c r="I42" s="158" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J42" s="150" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K42" s="54"/>
       <c r="L42" s="153"/>
@@ -7473,24 +7260,24 @@
     </row>
     <row r="43" spans="1:18" ht="24">
       <c r="A43" s="87" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B43" s="114"/>
       <c r="C43" s="139"/>
       <c r="D43" s="159" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E43" s="107"/>
       <c r="F43" s="156"/>
       <c r="G43" s="156"/>
       <c r="H43" s="157" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I43" s="158" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J43" s="150" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K43" s="54"/>
       <c r="L43" s="153"/>
@@ -7503,38 +7290,38 @@
     </row>
     <row r="44" spans="1:18" ht="24">
       <c r="A44" s="69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B44" s="118"/>
       <c r="C44" s="119" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D44" s="160" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E44" s="145"/>
       <c r="F44" s="145"/>
       <c r="G44" s="145"/>
       <c r="H44" s="161" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I44" s="162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J44" s="163" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K44" s="164" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L44" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M44" s="165">
         <v>1</v>
       </c>
       <c r="N44" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O44" s="127">
         <v>43737</v>
@@ -7545,36 +7332,36 @@
     </row>
     <row r="45" spans="1:18" ht="36">
       <c r="A45" s="69" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B45" s="118"/>
       <c r="C45" s="129"/>
       <c r="D45" s="144" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E45" s="145"/>
       <c r="F45" s="145"/>
       <c r="G45" s="145"/>
       <c r="H45" s="161" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I45" s="162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J45" s="163" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K45" s="166" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L45" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M45" s="165">
         <v>2</v>
       </c>
       <c r="N45" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O45" s="127">
         <v>43737</v>
@@ -7585,36 +7372,36 @@
     </row>
     <row r="46" spans="1:18" ht="36">
       <c r="A46" s="69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B46" s="118"/>
       <c r="C46" s="129"/>
       <c r="D46" s="144" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E46" s="145"/>
       <c r="F46" s="145"/>
       <c r="G46" s="145"/>
       <c r="H46" s="161" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I46" s="162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J46" s="163" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K46" s="166" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L46" s="126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M46" s="165">
         <v>3</v>
       </c>
       <c r="N46" s="126" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O46" s="127">
         <v>43737</v>
@@ -7625,24 +7412,24 @@
     </row>
     <row r="47" spans="1:18" ht="24">
       <c r="A47" s="87" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B47" s="114"/>
       <c r="C47" s="139"/>
       <c r="D47" s="159" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E47" s="107"/>
       <c r="F47" s="107"/>
       <c r="G47" s="107"/>
       <c r="H47" s="149" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I47" s="143" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J47" s="167" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K47" s="54"/>
       <c r="L47" s="153"/>
@@ -7655,26 +7442,26 @@
     </row>
     <row r="48" spans="1:18" ht="24">
       <c r="A48" s="87" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B48" s="114"/>
       <c r="C48" s="168" t="s">
         <v>51</v>
       </c>
       <c r="D48" s="106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E48" s="107"/>
       <c r="F48" s="107"/>
       <c r="G48" s="107"/>
       <c r="H48" s="149" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I48" s="143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J48" s="169" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K48" s="54"/>
       <c r="L48" s="153"/>
@@ -7687,11 +7474,11 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="87" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B49" s="114"/>
       <c r="C49" s="168" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D49" s="106" t="s">
         <v>21</v>
@@ -7700,13 +7487,13 @@
       <c r="F49" s="107"/>
       <c r="G49" s="107"/>
       <c r="H49" s="149" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I49" s="143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J49" s="169" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K49" s="54"/>
       <c r="L49" s="153"/>
@@ -7719,11 +7506,11 @@
     </row>
     <row r="50" spans="1:18" ht="24">
       <c r="A50" s="87" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B50" s="114"/>
       <c r="C50" s="168" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" s="106" t="s">
         <v>21</v>
@@ -7732,13 +7519,13 @@
       <c r="F50" s="107"/>
       <c r="G50" s="107"/>
       <c r="H50" s="149" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I50" s="143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J50" s="167" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K50" s="54"/>
       <c r="L50" s="153"/>
@@ -7751,11 +7538,11 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="87" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B51" s="170"/>
       <c r="C51" s="171" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D51" s="172" t="s">
         <v>21</v>
@@ -7764,13 +7551,13 @@
       <c r="F51" s="107"/>
       <c r="G51" s="107"/>
       <c r="H51" s="149" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I51" s="173" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J51" s="169" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K51" s="54"/>
       <c r="L51" s="153"/>
@@ -7826,7 +7613,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -7841,7 +7628,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>28</v>
@@ -7852,7 +7639,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>31</v>
@@ -7884,7 +7671,7 @@
         <v>33</v>
       </c>
       <c r="B10" s="180" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="181" t="s">
         <v>34</v>
@@ -7911,13 +7698,13 @@
         <v>43</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L10" s="32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M10" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N10" s="32" t="s">
         <v>47</v>
@@ -7931,22 +7718,22 @@
         <v>50</v>
       </c>
       <c r="B11" s="175" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C11" s="175" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D11" s="178" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E11" s="178" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" s="178" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="176"/>
@@ -7964,16 +7751,16 @@
       <c r="B12" s="177"/>
       <c r="C12" s="177"/>
       <c r="D12" s="178" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E12" s="178" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="178" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="176"/>
